--- a/spec/fixtures/fails_data_type_integer.xlsx
+++ b/spec/fixtures/fails_data_type_integer.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emeryr/code/GIT/xlsx_to_pqc_xml/spec/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13820C35-D030-984F-9C54-032695A0676E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42FFCEA-D268-BD44-B89C-B382B1DC32B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -452,7 +452,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
